--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB309.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB309.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3475471987950844</v>
+        <v>0.3475469908725779</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.31922366 0.9476794 ]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.204603711894261</v>
+        <v>1.204601251540679</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.44173296  0.5244037   0.72792359]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2187985766957747</v>
+        <v>0.218795725544832</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00312578  0.01384813  0.99989922]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6007739558863875</v>
+        <v>0.6007661531488215</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-6.33261181e-04  2.84442762e-01 -9.58692815e-01]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9264808367081118</v>
+        <v>0.926475704553728</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.73091311 0.2947569  0.61553586]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7115797979140809</v>
+        <v>0.7115700705739271</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.74681708 -0.28082557  0.60282771]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4241852188827935</v>
+        <v>0.4241854348423081</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31795577 0.94810555]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.13796554532568</v>
+        <v>1.137964285050551</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30612011  0.9519929 ]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4038871784273685</v>
+        <v>0.4038639736697666</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.73998515  0.26934801  0.61633889]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.003531511371876</v>
+        <v>1.003521588268715</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.73531595 -0.28361354  0.61552726]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5989569520587259</v>
+        <v>0.5989561537111915</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 6.30353532e-04 -2.84472935e-01 -9.58683865e-01]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.812879291343453</v>
+        <v>1.812873385486746</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.72311312 -0.28745969  0.62807193]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.472971953168941</v>
+        <v>3.472969097681784</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.70523896 0.26133167 0.65904763]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.265113365966471</v>
+        <v>1.265110129265497</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30400678  0.95266987]</t>
+        </is>
       </c>
     </row>
   </sheetData>
